--- a/example-result.xlsx
+++ b/example-result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.874999862724751</v>
+        <v>3.225667879797415</v>
       </c>
       <c r="C2" t="n">
-        <v>1.585680562554303</v>
+        <v>0.9694480745296585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4011207938699747</v>
+        <v>0.2965345893770905</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>11.34916036172668</v>
+        <v>27.70667190924032</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.495114190667765</v>
+        <v>2.410245419775222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9488532275302598</v>
+        <v>1.169209999684015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3510318369380253</v>
+        <v>0.4850999778242728</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>3.733955017427689</v>
+        <v>94.60764391741178</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -516,19 +516,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.025927298039535</v>
+        <v>2.58585830831489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4994672460068775</v>
+        <v>0.8698533713778904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2465375961369423</v>
+        <v>0.3327715623679397</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5082888622372703</v>
+        <v>40.39492319798288</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.018944204246829</v>
+        <v>2.734771708620231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7606225984185352</v>
+        <v>0.9641693783757467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3265103862583704</v>
+        <v>0.3485980243136115</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>1.802474875186776</v>
+        <v>23.86454475178815</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.962561403513586</v>
+        <v>3.244078779811081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7655689363440178</v>
+        <v>1.025481414833919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06406390722555265</v>
+        <v>0.30756518834527</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>30.73420929164084</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.733623146072365</v>
+        <v>3.116010871434669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7961749600750253</v>
+        <v>1.140514079922902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2647751279432804</v>
+        <v>0.3613248319704653</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>1.351135982751589</v>
+        <v>60.77669562496071</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.413719897973171</v>
+        <v>2.866723436267121</v>
       </c>
       <c r="C8" t="n">
-        <v>1.328879000402955</v>
+        <v>1.037782474793425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3503483402586005</v>
+        <v>0.3620099733599568</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>49.86397983751448</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.673630565507064</v>
+        <v>2.970725633661517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7972513063031502</v>
+        <v>0.9360570663707364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1953180002393073</v>
+        <v>0.3150937453678667</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5145404542645942</v>
+        <v>26.73021531649941</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -654,19 +654,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.608096961849428</v>
+        <v>3.256285718523033</v>
       </c>
       <c r="C10" t="n">
-        <v>1.30657391822403</v>
+        <v>1.010581667179118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3757262298918303</v>
+        <v>0.3061540799360086</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>5.591408299742572</v>
+        <v>25.06063473117011</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.748761268205813</v>
+        <v>3.123142802711478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7318241501358279</v>
+        <v>0.9009578130033886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2662377990408415</v>
+        <v>0.2847314767077316</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02174138318329977</v>
+        <v>13.92741136303323</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.134162167482529</v>
+        <v>2.735629244644271</v>
       </c>
       <c r="C12" t="n">
-        <v>1.168204417116506</v>
+        <v>0.8530308790969714</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5108909431789928</v>
+        <v>0.3082791091047954</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>10.20300620185044</v>
+        <v>29.22721167505706</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.310652255435106</v>
+        <v>2.9633021619727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.801320960388434</v>
+        <v>1.098505774985981</v>
       </c>
       <c r="D13" t="n">
-        <v>0.346794269238727</v>
+        <v>0.3661266776023063</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>3.933358889432616</v>
+        <v>25.51893974265448</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.956229989559231</v>
+        <v>2.841414563525257</v>
       </c>
       <c r="C14" t="n">
-        <v>1.100556765660865</v>
+        <v>1.039846019963721</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2434103104457143</v>
+        <v>0.361802040826888</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>2.339219985285018</v>
+        <v>40.90638378174487</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.373792480769732</v>
+        <v>2.518408356472078</v>
       </c>
       <c r="C15" t="n">
-        <v>1.212691391375852</v>
+        <v>0.9979021097077008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3195062854604701</v>
+        <v>0.3838605706238861</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>6.596424943711888</v>
+        <v>70.45237457701249</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.076265501310834</v>
+        <v>2.449578851510908</v>
       </c>
       <c r="C16" t="n">
-        <v>1.033846313849489</v>
+        <v>1.133981547330262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3360718746184145</v>
+        <v>0.4534816530144896</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>3.415511146973175</v>
+        <v>76.34151480292252</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -815,19 +815,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.15074736108969</v>
+        <v>2.609027874097676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.870028853445303</v>
+        <v>1.041457808227644</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2510310192056674</v>
+        <v>0.3861580926470586</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0403145298493</v>
+        <v>55.60951890170004</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.307425391990521</v>
+        <v>3.299819460237865</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6442566444066984</v>
+        <v>0.8755962578724654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2592665898277591</v>
+        <v>0.2617118296903096</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8190016985495099</v>
+        <v>20.26004024510452</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.730171846622965</v>
+        <v>3.034434840595098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9713746685655058</v>
+        <v>1.045487730455538</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5302417855147746</v>
+        <v>0.340287575369878</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>8.865779618222852</v>
+        <v>33.8658072910244</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -884,22 +884,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.514995110803386</v>
+        <v>2.879260030743138</v>
       </c>
       <c r="C20" t="n">
-        <v>1.313609999081873</v>
+        <v>1.056796812626628</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3321920218120424</v>
+        <v>0.3495596591262831</v>
       </c>
       <c r="E20" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" t="n">
+        <v>66.64660641273028</v>
+      </c>
+      <c r="G20" t="n">
         <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10.05355716785962</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -907,21 +907,251 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.857851940641235</v>
+        <v>2.970483211076294</v>
       </c>
       <c r="C21" t="n">
-        <v>1.198642630615145</v>
+        <v>0.9825896790557355</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6072250516311792</v>
+        <v>0.3307844580275255</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>2.536919361691045</v>
+        <v>29.55614016666814</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.944106091891543</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.049794721235858</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3565750310857109</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.18842088450506</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.896563110255598</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8573507854020246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2924653101579407</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.42270536915056</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.750164691624759</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.158321005222788</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4069852545069212</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64.79963641523612</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.492600919808462</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.073049181644199</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4216176155187447</v>
+      </c>
+      <c r="E25" t="n">
+        <v>42</v>
+      </c>
+      <c r="F25" t="n">
+        <v>60.29560307113892</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.721838016944113</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.083545185033603</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2867206549256008</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19</v>
+      </c>
+      <c r="F26" t="n">
+        <v>27.40014072631072</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.130240781696185</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.879376358329369</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2773732350234496</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22.12038368170106</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.243620302072059</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.029069973428744</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3043978112423248</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25.06004159877079</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.094366642336881</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9942766345009806</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2387242212377044</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16.08717439776859</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.337291420056054</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.040922860062667</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3075744575222356</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>34.56929288216594</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.024496880130288</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.101248134838976</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3595581600026788</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39.02493980613021</v>
+      </c>
+      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
